--- a/models/synechocystis/measured_fluxes.xlsx
+++ b/models/synechocystis/measured_fluxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\EMUlator2\Data\Synechocystis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwu\Desktop\Software\FreeFlux\models\synechocystis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACA09FC-B0C0-44C3-AEBC-46171ACC69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926D995A-3A00-4482-B9F4-5D3518B1E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1335" windowWidth="22635" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18045" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>sd</t>
   </si>
   <si>
-    <t>v37</t>
+    <t>co2in</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
